--- a/preliminar.xlsx
+++ b/preliminar.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14:AM21"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
